--- a/public/res/leaderboards/R1 Beginner.xlsx
+++ b/public/res/leaderboards/R1 Beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/res/leaderboards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CC1B480-468C-074D-9D15-1BA6340ECCAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{956E78F8-7367-9C4C-A96D-EE201930A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="640" windowWidth="34560" windowHeight="21700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
     <t>Brendan Zou</t>
   </si>
   <si>
-    <t>CHAK SAN WU</t>
-  </si>
-  <si>
     <t>Cheng Yong Sim</t>
   </si>
   <si>
@@ -350,6 +347,9 @@
   </si>
   <si>
     <t>Andrew Zhang</t>
+  </si>
+  <si>
+    <t>Chak San Wu</t>
   </si>
 </sst>
 </file>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="209" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,13 +1206,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s">
         <v>98</v>
       </c>
-      <c r="B1" t="s">
-        <v>99</v>
-      </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -1433,7 +1433,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1447,7 +1447,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
@@ -1461,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C19" t="s">
         <v>2</v>
@@ -1475,7 +1475,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C20" t="s">
         <v>2</v>
@@ -1489,7 +1489,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
         <v>2</v>
@@ -1503,7 +1503,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
         <v>2</v>
@@ -1517,7 +1517,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>2</v>
@@ -1531,7 +1531,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
         <v>2</v>
@@ -1545,7 +1545,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
         <v>2</v>
@@ -1559,7 +1559,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
         <v>2</v>
@@ -1573,7 +1573,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
         <v>2</v>
@@ -1587,7 +1587,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
         <v>2</v>
@@ -1601,7 +1601,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
@@ -1615,7 +1615,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
         <v>2</v>
@@ -1629,7 +1629,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
         <v>2</v>
@@ -1643,7 +1643,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
         <v>2</v>
@@ -1657,7 +1657,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C33" t="s">
         <v>2</v>
@@ -1671,7 +1671,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
         <v>2</v>
@@ -1685,7 +1685,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
@@ -1713,7 +1713,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
         <v>2</v>
@@ -1727,7 +1727,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
         <v>2</v>
@@ -1741,7 +1741,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
         <v>2</v>
@@ -1769,7 +1769,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
         <v>2</v>
@@ -1783,7 +1783,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
         <v>2</v>
@@ -1811,7 +1811,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
         <v>2</v>
@@ -1825,7 +1825,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" t="s">
         <v>2</v>
@@ -1839,7 +1839,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
         <v>2</v>
@@ -1853,7 +1853,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" t="s">
         <v>2</v>
@@ -1867,7 +1867,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" t="s">
         <v>2</v>
@@ -1881,7 +1881,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
         <v>2</v>
@@ -1895,7 +1895,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" t="s">
         <v>2</v>
@@ -1909,7 +1909,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" t="s">
         <v>2</v>
@@ -1923,7 +1923,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
         <v>2</v>
@@ -1937,7 +1937,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" t="s">
         <v>2</v>
@@ -1951,7 +1951,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" t="s">
         <v>2</v>
@@ -1965,7 +1965,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
@@ -1979,7 +1979,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>2</v>
@@ -1993,7 +1993,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>2</v>
@@ -2007,7 +2007,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C58" t="s">
         <v>2</v>
@@ -2021,7 +2021,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C59" t="s">
         <v>2</v>
@@ -2035,7 +2035,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C60" t="s">
         <v>2</v>
@@ -2049,7 +2049,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C61" t="s">
         <v>2</v>
@@ -2063,7 +2063,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
         <v>2</v>
@@ -2077,7 +2077,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
         <v>2</v>
@@ -2091,7 +2091,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
         <v>2</v>
@@ -2105,7 +2105,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C65" t="s">
         <v>2</v>
@@ -2119,7 +2119,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C66" t="s">
         <v>2</v>
@@ -2133,7 +2133,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
         <v>2</v>
@@ -2147,7 +2147,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C68" t="s">
         <v>2</v>
@@ -2161,7 +2161,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C69" t="s">
         <v>2</v>
@@ -2175,7 +2175,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C70" t="s">
         <v>2</v>
@@ -2189,7 +2189,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
         <v>2</v>
@@ -2203,7 +2203,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>2</v>
@@ -2217,7 +2217,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
         <v>2</v>
@@ -2231,7 +2231,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C74" t="s">
         <v>2</v>
@@ -2245,7 +2245,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
@@ -2259,7 +2259,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
         <v>2</v>
@@ -2273,7 +2273,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C77" t="s">
         <v>2</v>
@@ -2287,7 +2287,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
         <v>2</v>
@@ -2301,7 +2301,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
         <v>2</v>
@@ -2315,7 +2315,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C80" t="s">
         <v>2</v>
@@ -2329,7 +2329,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
         <v>2</v>
@@ -2343,7 +2343,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" t="s">
         <v>2</v>
@@ -2357,7 +2357,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" t="s">
         <v>2</v>
@@ -2371,7 +2371,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" t="s">
         <v>2</v>
@@ -2385,7 +2385,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C85" t="s">
         <v>2</v>
@@ -2399,7 +2399,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
@@ -2413,7 +2413,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C87" t="s">
         <v>2</v>
@@ -2427,7 +2427,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
@@ -2441,7 +2441,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C89" t="s">
         <v>2</v>
@@ -2455,7 +2455,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C90" t="s">
         <v>2</v>
@@ -2469,7 +2469,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
         <v>2</v>
@@ -2483,7 +2483,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C92" t="s">
         <v>2</v>
@@ -2497,7 +2497,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C93" t="s">
         <v>2</v>
@@ -2511,7 +2511,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" t="s">
         <v>2</v>
@@ -2525,7 +2525,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C95" t="s">
         <v>2</v>
@@ -2539,7 +2539,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C96" t="s">
         <v>2</v>
@@ -2553,7 +2553,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C97" t="s">
         <v>2</v>
@@ -2567,7 +2567,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
@@ -2581,7 +2581,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C99" t="s">
         <v>2</v>
@@ -2595,7 +2595,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -2609,7 +2609,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C101" t="s">
         <v>2</v>
@@ -2623,7 +2623,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C102" t="s">
         <v>2</v>
@@ -2637,7 +2637,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C103" t="s">
         <v>2</v>
@@ -2651,7 +2651,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C104" t="s">
         <v>2</v>
@@ -2665,7 +2665,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
@@ -2679,7 +2679,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C106" t="s">
         <v>2</v>
